--- a/Chonqqing Power Grid/data-files/2017年协议库存用量统计.xlsx
+++ b/Chonqqing Power Grid/data-files/2017年协议库存用量统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12516" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12516" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="使用金额" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
   <si>
     <t>电能表</t>
   </si>
@@ -272,17 +272,13 @@
   </si>
   <si>
     <t>电能表箱</t>
-  </si>
-  <si>
-    <t>铅封</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,13 +469,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -959,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,18 +974,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1328,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1371,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="2">
         <v>50480.82</v>
       </c>
@@ -1417,7 +1394,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2">
         <v>314028</v>
       </c>
@@ -3479,20 +3456,9 @@
         <v>22516370.079999976</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="12">
-        <v>3942859.5063</v>
-      </c>
-      <c r="M73" s="10">
-        <v>9945</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3503,10 +3469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5655,17 +5621,6 @@
         <v>12476</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="10">
-        <v>61033</v>
-      </c>
-      <c r="M73" s="10">
-        <v>10150</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
